--- a/biology/Zoologie/Echimys/Echimys.xlsx
+++ b/biology/Zoologie/Echimys/Echimys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Echimys est un genre de rongeurs de la famille des Echimyidae qui comprend des espèces de rats épineux d'Amérique latine.
 Ce genre a été décrit pour la première fois en 1809 par l'anatomiste français Georges Cuvier (1769-1832).
-Synonymes[1] :
+Synonymes :
 Echinomys Wagner, 1840
 Loncheres Illiger, 1811
 Nelomys Jourdan, 1837</t>
@@ -515,27 +527,29 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La taxinomie de ses espèces est en révision en 2005 : Louise Emmons retient seulement deux espèces dans ce genre, E. chrysurus et E. saturnus[2]. Les autres espèces sont désormais réparties de préférence dans les genres voisins Phyllomys, Makalata, Callistomys ou Pattonomys.
-Selon Mammal Species of the World (version 3, 2005)  (20 novembre 2013)[1], ITIS      (20 novembre 2013)[3] :
-Echimys chrysurus (Zimmermann, 1780) - le Rat épineux à tête blanche[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La taxinomie de ses espèces est en révision en 2005 : Louise Emmons retient seulement deux espèces dans ce genre, E. chrysurus et E. saturnus. Les autres espèces sont désormais réparties de préférence dans les genres voisins Phyllomys, Makalata, Callistomys ou Pattonomys.
+Selon Mammal Species of the World (version 3, 2005)  (20 novembre 2013), ITIS      (20 novembre 2013) :
+Echimys chrysurus (Zimmermann, 1780) - le Rat épineux à tête blanche
 Echimys saturnus Thomas, 1928
-Echimys semivillosus (I. Geoffroy Saint-Hilaire, 1838) - Déplacé dans le genre Pattonomys Emmons, 2005[5]
-Selon Paleobiology Database                   (21 septembre 2012)[6] :
+Echimys semivillosus (I. Geoffroy Saint-Hilaire, 1838) - Déplacé dans le genre Pattonomys Emmons, 2005
+Selon Paleobiology Database                   (21 septembre 2012) :
 Echimys chrysurus
 Echimys grandis
 Echimys paleaceus
 Echimys saturnus
 Echimys vieirai
-Selon Catalogue of Life                                   (20 novembre 2013)[7] :
+Selon Catalogue of Life                                   (20 novembre 2013) :
 Echimys blainvillei - voir Phyllomys blainvillii
 Echimys braziliensis - voir Phyllomys brasiliensis
 Echimys chrysurus
 Echimys dasythrix - voir Phyllomys dasythrix
 Echimys grandis - voir Makalata grandis
 Echimys lamarum - voir Phyllomys lamarum
-Echimys macrurus -  voir Makalata macrura, le Rat épineux à longue queue[4]
+Echimys macrurus -  voir Makalata macrura, le Rat épineux à longue queue
 Echimys nigrispinus - voir Phyllomys nigrispinus
 Echimys pictus - voir Callistomys pictus
 Echimys rhipidurus - voir Makalata rhipidura
